--- a/IntegTheremin/IntegTheremin.xlsx
+++ b/IntegTheremin/IntegTheremin.xlsx
@@ -4,58 +4,233 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="7680"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="17775" windowHeight="4215"/>
   </bookViews>
   <sheets>
     <sheet name="IntegTheremin" sheetId="1" r:id="rId1"/>
+    <sheet name="Inv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="122">
-  <si>
-    <t xml:space="preserve">         .047uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         SM0805</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="312">
+  <si>
+    <t>0.01uF</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>SM0805</t>
+  </si>
+  <si>
+    <t>Kemet</t>
+  </si>
+  <si>
+    <t>C0805C103K5RACTU</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>C1 C8 C9 C11 C14</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>1C10Z5U104M050B</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>75-1C10Z5U104M050B</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>SM1206</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>MuRata</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>GRM21BR61E475MA12L</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>SM1210</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C1V8</t>
+  </si>
+  <si>
+    <t>United Chemi-Con</t>
+  </si>
+  <si>
+    <t>.047uF</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>VJ0805Y473JXAPW1BC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         0.01uF</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>Kemet</t>
-  </si>
-  <si>
-    <t>C0805C103K5RACTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          0.1uF</t>
-  </si>
-  <si>
-    <t>C1, C6, C8, C9, C11, C14</t>
-  </si>
-  <si>
-    <t>1C10Z5U104M050B</t>
-  </si>
-  <si>
-    <t>Mouser</t>
-  </si>
-  <si>
-    <t>75-1C10Z5U104M050B</t>
+    <t>1UF</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>4N4004</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
+  </si>
+  <si>
+    <t>MBR0520LT1G</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>CONN_10</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>PIN_ARRAY-10X1</t>
+  </si>
+  <si>
+    <t>CONN_6</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>PIN_ARRAY-6X1</t>
+  </si>
+  <si>
+    <t>CONN_2</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>PIN_ARRAY_2X1</t>
+  </si>
+  <si>
+    <t>CONN_3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>PIN_ARRAY_3X1</t>
+  </si>
+  <si>
+    <t>CONN_4</t>
+  </si>
+  <si>
+    <t>J5 J6</t>
+  </si>
+  <si>
+    <t>PIN_ARRAY_4x1</t>
+  </si>
+  <si>
+    <t>RCA-JACK</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t>Neutrik</t>
+  </si>
+  <si>
+    <t>NYS354</t>
+  </si>
+  <si>
+    <t>568-NYS354</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>TB2-5MM</t>
+  </si>
+  <si>
+    <t>USB-B</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>USB-B-MINI</t>
+  </si>
+  <si>
+    <t>68uH</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>IND-6MM</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>SRN6045-680M</t>
+  </si>
+  <si>
+    <t>CONN_1</t>
+  </si>
+  <si>
+    <t>MTG1 MTG2 MTG3 MTG4</t>
+  </si>
+  <si>
+    <t>MTG-4-40</t>
   </si>
   <si>
     <t>R2</t>
@@ -67,295 +242,145 @@
     <t>71-CCF0710R0GKE36</t>
   </si>
   <si>
-    <t xml:space="preserve">            10K</t>
-  </si>
-  <si>
-    <t>R3, R8, R9</t>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Xicon</t>
+  </si>
+  <si>
+    <t>260-221-RC</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>260-2.2K-RC</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>5.1K</t>
+  </si>
+  <si>
+    <t>R6 R7</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R3 R5 R8 R9</t>
   </si>
   <si>
     <t>CRCW080510K0JNEB</t>
   </si>
   <si>
-    <t xml:space="preserve">           10uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         SM1206</t>
-  </si>
-  <si>
-    <t>C10, C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TDK</t>
-  </si>
-  <si>
-    <t>C3225X5R1E106K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          16MHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     RESON_3PIN</t>
+    <t>2.2M</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>260-2.2M-RC</t>
+  </si>
+  <si>
+    <t>25K</t>
+  </si>
+  <si>
+    <t>RV1</t>
+  </si>
+  <si>
+    <t>POT-6MM</t>
+  </si>
+  <si>
+    <t>LM22674MR-5.0</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>DDA0008B</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>LM22674MR-5.0/NOPB</t>
+  </si>
+  <si>
+    <t>XR2206</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>DIP-16__300</t>
+  </si>
+  <si>
+    <t>ATMEGA328-PU</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>DIP-28__300</t>
+  </si>
+  <si>
+    <t>LM386</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>DIP-8__300</t>
+  </si>
+  <si>
+    <t>National Semi</t>
+  </si>
+  <si>
+    <t>LM386N-3/NOPB</t>
+  </si>
+  <si>
+    <t>926-LM386N-3/NOPB</t>
+  </si>
+  <si>
+    <t>FT232RL</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>ftdichip-1-SSOP28DB</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>VendorPN</t>
+  </si>
+  <si>
+    <t>AD5292</t>
+  </si>
+  <si>
+    <t>U5 U6</t>
+  </si>
+  <si>
+    <t>tssop-14</t>
+  </si>
+  <si>
+    <t>16MHz</t>
   </si>
   <si>
     <t>Y1</t>
   </si>
   <si>
-    <t xml:space="preserve">            1uF</t>
-  </si>
-  <si>
-    <t>C5, C7, C13</t>
-  </si>
-  <si>
-    <t>MuRata</t>
-  </si>
-  <si>
-    <t>GRM188R61E105KA12D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           2.2K</t>
-  </si>
-  <si>
-    <t>R10, R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           2.2M</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          220uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           C1V8</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            22K</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            25K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        POT-6MM</t>
-  </si>
-  <si>
-    <t>RV1</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           4.7K</t>
-  </si>
-  <si>
-    <t>R11, R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          4.7uF</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>GRM21BR61E475MA12L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         4N4004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        SOD-123</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           5.1K</t>
-  </si>
-  <si>
-    <t>R6, R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           68uH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        IND-6MM</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>SRN6045-680M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         AD5292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       tssop-14</t>
-  </si>
-  <si>
-    <t>U5, U6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ATMEGA328-PU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    DIP-28__300</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         CONN_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       MTG-4-40</t>
-  </si>
-  <si>
-    <t>MTG1, MTG2, MTG3, MTG4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        CONN_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PIN_ARRAY-10X1</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         CONN_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PIN_ARRAY_2X1</t>
-  </si>
-  <si>
-    <t>J1, J10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         CONN_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PIN_ARRAY_3X1</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         CONN_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PIN_ARRAY_4x1</t>
-  </si>
-  <si>
-    <t>J5, J6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         CONN_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PIN_ARRAY-6X1</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          DIODE</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>MBR0530T1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        FT232RL</t>
-  </si>
-  <si>
-    <t>ftdichip-1-SSOP28DB</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LM22674-5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       DDA0008B</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  TI</t>
-  </si>
-  <si>
-    <t>LM22674MR-5.0/NOPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          LM386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     DIP-8__300</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>National Semi</t>
-  </si>
-  <si>
-    <t>LM386N-3/NOPB</t>
-  </si>
-  <si>
-    <t>926-LM386N-3/NOPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       RCA-JACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            RCA</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>Neutrik</t>
-  </si>
-  <si>
-    <t>NYS354</t>
-  </si>
-  <si>
-    <t>568-NYS354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          USB-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     USB-B-MINI</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         XR2206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    DIP-16__300</t>
-  </si>
-  <si>
-    <t>U2</t>
+    <t>RESON_3PIN</t>
   </si>
   <si>
     <t>Murata</t>
@@ -364,29 +389,575 @@
     <t>CSTLS16M0X51-A0</t>
   </si>
   <si>
-    <t>Xicon</t>
-  </si>
-  <si>
-    <t>260-2.2K-RC</t>
-  </si>
-  <si>
-    <t>260-2.2M-RC</t>
-  </si>
-  <si>
-    <t>EKMG250ELL221MHB5D</t>
-  </si>
-  <si>
-    <t>United Chemi-Con</t>
-  </si>
-  <si>
-    <t>260-22K-RC</t>
+    <t>Mouser Part Number</t>
+  </si>
+  <si>
+    <t>Total Qty</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>647-UPS2C101MHD1TN</t>
+  </si>
+  <si>
+    <t>Aluminum Electrolytic Capacitors - Leaded 100UF 160V 105c</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>140-REA100M1EBK0511P</t>
+  </si>
+  <si>
+    <t>Aluminum Electrolytic Capacitors - Leaded 25V 10uF 20% 5x11mm</t>
+  </si>
+  <si>
+    <t>661-EKMGG250ELL221MH</t>
+  </si>
+  <si>
+    <t>Aluminum Electrolytic Capacitors - Leaded 25volts 220uF 8x11.5</t>
+  </si>
+  <si>
+    <t>647-UFW1V471MPD</t>
+  </si>
+  <si>
+    <t>Aluminum Electrolytic Capacitors - Leaded 35volts 470uF 20%</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - Leaded 0.1uF 50volts Z5U 20% 2.5mm L/S</t>
+  </si>
+  <si>
+    <t>81-GRM188R61E105KA12</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0603 1uF 25volts X5R 10%</t>
+  </si>
+  <si>
+    <t>CC0603</t>
+  </si>
+  <si>
+    <t>581-08055C104K</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0805 0.1uF 50volts X7R 10%</t>
+  </si>
+  <si>
+    <t>CC0805</t>
+  </si>
+  <si>
+    <t>140-CC501N180J-RC</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0805 18pF 50volts C0G/NP0 5%</t>
+  </si>
+  <si>
+    <t>77-VJ0805Y105MXQTBC</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0805 1uF 10volts X7R 20%</t>
+  </si>
+  <si>
+    <t>810-C3225X5R1E106K</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 1210 10uF 25volts X5R 10%</t>
+  </si>
+  <si>
+    <t>CC1210</t>
+  </si>
+  <si>
+    <t>81-GRM21BR61E475MA2L</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 4.7uF 25Volts 20%</t>
+  </si>
+  <si>
+    <t>80-C0805C103K5R</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50volts 10000pF X7R 10%</t>
+  </si>
+  <si>
+    <t>888-XB24-Z7WIT-004</t>
+  </si>
+  <si>
+    <t>Zigbee / 802.15.4 Modules XBee ZB w/WiredWhip AT Router F/W</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>163-179PH-EX</t>
+  </si>
+  <si>
+    <t>DC Power Connectors PCB 2.1MM</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>RCA Phono Connectors SHIELDED RIGHT ANGLE REAN</t>
+  </si>
+  <si>
+    <t>798-UX60SC-MB-5ST80</t>
+  </si>
+  <si>
+    <t>USB Connectors MINI B RECEPT RA SMT BTTM MNT</t>
+  </si>
+  <si>
+    <t>774-ATS080CSM-1</t>
+  </si>
+  <si>
+    <t>Crystals 8MHz 32pF 30ppm -20C 70C</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>546-1551KRBK</t>
+  </si>
+  <si>
+    <t>Enclosures, Boxes, &amp; Cases 3.15 X 1.57 X .67 Black With Key Ring</t>
+  </si>
+  <si>
+    <t>Enclosure</t>
+  </si>
+  <si>
+    <t>546-1551KTBU</t>
+  </si>
+  <si>
+    <t>Enclosures, Boxes, &amp; Cases 3.15 x 1.58 x 0.79 TransBlue</t>
+  </si>
+  <si>
+    <t>563-CU-1945</t>
+  </si>
+  <si>
+    <t>Enclosures, Boxes, &amp; Cases 3.76 X 6.21 X 2.0</t>
+  </si>
+  <si>
+    <t>649-68494-426HLF</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings 26P UNSHROUD HEADER RT ANGLE</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>649-68000-236HLF</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings 36 POS STR HDR</t>
+  </si>
+  <si>
+    <t>649-68602-406HLF</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings 6P DR VRT UNSHRD HDR TIN OVER NICKEL</t>
+  </si>
+  <si>
+    <t>571-6404536</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings FLAT HEADER 6P Right Angle Post tin</t>
+  </si>
+  <si>
+    <t>532-580200B00</t>
+  </si>
+  <si>
+    <t>Heat Sinks HEAT SINK DIP-14/16</t>
+  </si>
+  <si>
+    <t>HeatSink</t>
+  </si>
+  <si>
+    <t>Audio Amplifiers</t>
+  </si>
+  <si>
+    <t>IC-Analog</t>
+  </si>
+  <si>
+    <t>926-LM384N/NOPB</t>
+  </si>
+  <si>
+    <t>Audio Amplifiers 5-W AUDIO POWER AMP</t>
+  </si>
+  <si>
+    <t>579-MCP23008-E/P</t>
+  </si>
+  <si>
+    <t>Interface - I/O Expanders In/Out I2C int</t>
+  </si>
+  <si>
+    <t>IC-Logic</t>
+  </si>
+  <si>
+    <t>579-MCP23017-E/SP</t>
+  </si>
+  <si>
+    <t>Interface - Specialized 16bit Input/Output Exp I2C interface</t>
+  </si>
+  <si>
+    <t>895-FT232RL</t>
+  </si>
+  <si>
+    <t>USB Interface IC USB to Serial UART Enhanced IC SSOP-28</t>
+  </si>
+  <si>
+    <t>579-MCP73833-AMI/UN</t>
+  </si>
+  <si>
+    <t>Battery Management Charge Management Controllers</t>
+  </si>
+  <si>
+    <t>IC-Power</t>
+  </si>
+  <si>
+    <t>926-LM22674MR50NOPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC/DC Switching Converters </t>
+  </si>
+  <si>
+    <t>621-AP1117Y50G-13</t>
+  </si>
+  <si>
+    <t>Low Dropout Regulators - LDO LINEAR REG FIXED-MODE</t>
+  </si>
+  <si>
+    <t>863-MBR0530T1G</t>
+  </si>
+  <si>
+    <t>Fixed Inductors 68uH 20%</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>859-LTST-C170KRKT</t>
+  </si>
+  <si>
+    <t>Standard LEDs - SMD Red Clear 631nm</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>696-SML-LX15IGC-TR</t>
+  </si>
+  <si>
+    <t>Standard LEDs - SMD Red/Green 635/565 nm</t>
+  </si>
+  <si>
+    <t>78-TLHR5201</t>
+  </si>
+  <si>
+    <t>Standard LEDs - Through Hole Red Tinted Non-Diff 16-30mcd@10mA</t>
+  </si>
+  <si>
+    <t>556-ATMEGA328P-PU</t>
+  </si>
+  <si>
+    <t>8-bit Microcontrollers - MCU 32KB In-system Flash 20MHz 1.8V-5.5V</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>556-ATTINY85-20PU</t>
+  </si>
+  <si>
+    <t>8-bit Microcontrollers - MCU 8kB Flash 0.512kB EEPROM 6 I/O Pins</t>
+  </si>
+  <si>
+    <t>556-ATMEGA32U4-AU</t>
+  </si>
+  <si>
+    <t>8-bit Microcontrollers - MCU AVR USB 32K FLASH INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>556-ATMEGA32U4-MU</t>
+  </si>
+  <si>
+    <t>844-IRFU420PBF</t>
+  </si>
+  <si>
+    <t>MOSFET N-Chan 500V 2.4 Amp</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>844-IRFD9110PBF</t>
+  </si>
+  <si>
+    <t>MOSFET P-Chan 100V 0.7 Amp</t>
+  </si>
+  <si>
+    <t>652-91A1A-B24-B15L</t>
+  </si>
+  <si>
+    <t>Potentiometers 5/8" SQUARE ST PANEL CTRL</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>512-1N4006</t>
+  </si>
+  <si>
+    <t>Rectifiers 1.0a Rectifier General Purpose</t>
+  </si>
+  <si>
+    <t>Rectifier</t>
+  </si>
+  <si>
+    <t>512-1N4004</t>
+  </si>
+  <si>
+    <t>Rectifiers Vr/400V Io/1A T/R</t>
+  </si>
+  <si>
+    <t>Schottky Diodes &amp; Rectifiers 0.5A 30V</t>
+  </si>
+  <si>
+    <t>71-CCF55100KFKE36</t>
+  </si>
+  <si>
+    <t>Metal Film Resistors - Through Hole 1/4watt 100Kohms 1%</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>71-CMF5510K000FKEK</t>
+  </si>
+  <si>
+    <t>Metal Film Resistors - Through Hole 1/4watt 10Kohms 1%</t>
+  </si>
+  <si>
+    <t>260-10K-RC</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/10WATT 10KOHMS 5%</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>260-150-RC</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/10WATT 150OHMS 5%</t>
+  </si>
+  <si>
+    <t>260-22-RC</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/10WATT 22OHMS</t>
+  </si>
+  <si>
+    <t>260-470-RC</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/10WATT 470OHMS 5%</t>
+  </si>
+  <si>
+    <t>301-150-RC</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/16WATT 150OHMS</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>652-CR0805JW-271ELF</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 270ohm 5%</t>
+  </si>
+  <si>
+    <t>652-CRT0805FZ1002ELF</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD 1/8watts 10K 1%</t>
+  </si>
+  <si>
+    <t>652-3306F-1-253</t>
+  </si>
+  <si>
+    <t>Trimmer Resistors - Through Hole 25K 25% 6mm Single Turn</t>
+  </si>
+  <si>
+    <t>72-T93YA-50K</t>
+  </si>
+  <si>
+    <t>Trimmer Resistors - Through Hole 3/8" SQ V/ADJ 50K, 19 TURN</t>
+  </si>
+  <si>
+    <t>81-CSTLS16M0X51-A0</t>
+  </si>
+  <si>
+    <t>Resonators 16MHz 5%</t>
+  </si>
+  <si>
+    <t>Resonator</t>
+  </si>
+  <si>
+    <t>546-1551ATS100</t>
+  </si>
+  <si>
+    <t>Racks &amp; Rack Cabinet Accessories #2 S-TAP SCREW 100PK</t>
+  </si>
+  <si>
+    <t>Screw</t>
+  </si>
+  <si>
+    <t>575-199328</t>
+  </si>
+  <si>
+    <t>IC &amp; Component Sockets 28P TIN PIN TIN CONT</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>517-4828-3004-CP</t>
+  </si>
+  <si>
+    <t>IC &amp; Component Sockets SOCKET 28POS .3" IC OPEN FRAME</t>
+  </si>
+  <si>
+    <t>688-SKQUCA</t>
+  </si>
+  <si>
+    <t>Multi-Directional Switches 4-direction 160gf w/ 320gf cntr push</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>653-B3F-1022</t>
+  </si>
+  <si>
+    <t>Tactile Switches 6X6 Flat 5mm Btn Force 150g w/Grd</t>
+  </si>
+  <si>
+    <t>685-EX330</t>
+  </si>
+  <si>
+    <t>Digital Multimeters MINI DMM WITH TEMP &amp; NON CONTACT VOLTAG</t>
+  </si>
+  <si>
+    <t>TestEqt</t>
+  </si>
+  <si>
+    <t>667-ERT-J1VG103JA</t>
+  </si>
+  <si>
+    <t>Thermistors - NTC 10KOhms 5% THERMISTOR NTC</t>
+  </si>
+  <si>
+    <t>Thermistor</t>
+  </si>
+  <si>
+    <t>667-ERT-JZEG103JA</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>610-MJE13005</t>
+  </si>
+  <si>
+    <t>Transistors Bipolar - BJT NPN Fast SW</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>TO-220</t>
+  </si>
+  <si>
+    <t>512-SS8050CBU</t>
+  </si>
+  <si>
+    <t>Transistors Bipolar - BJT NPN/40V/1.5A</t>
+  </si>
+  <si>
+    <t>TO-92</t>
+  </si>
+  <si>
+    <t>512-1N5228B</t>
+  </si>
+  <si>
+    <t>Zener Diodes 3.9V 0.5W Zener</t>
+  </si>
+  <si>
+    <t>Zener</t>
+  </si>
+  <si>
+    <t>DO-35</t>
+  </si>
+  <si>
+    <t>512-1N5239B</t>
+  </si>
+  <si>
+    <t>Zener Diodes 9.1V 0.5W Zener</t>
+  </si>
+  <si>
+    <t>VJ0805Y105MXQTW1BC</t>
+  </si>
+  <si>
+    <t>603-CC206KKX5R7BB106</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>CC1206KKX5R7BB106</t>
+  </si>
+  <si>
+    <t>EKMGG250ELL221MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-CC805KKX7R7BB105 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC805KKX7R7BB105 </t>
+  </si>
+  <si>
+    <t>77-VJ0805Y473JXAPBC</t>
+  </si>
+  <si>
+    <t>VJ0805Y473JXAPBC</t>
+  </si>
+  <si>
+    <t>Fairchild</t>
+  </si>
+  <si>
+    <t>1N4004</t>
+  </si>
+  <si>
+    <t>863-MBR0520LT1G</t>
+  </si>
+  <si>
+    <t>652-SRN6045-680M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,23 +1094,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,8 +1280,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,6 +1414,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -880,10 +1474,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1226,630 +1827,1932 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>220</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>330</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D52" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" t="s">
+        <v>239</v>
+      </c>
+      <c r="E58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" t="s">
+        <v>264</v>
+      </c>
+      <c r="E60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" t="s">
-        <v>113</v>
+      <c r="C61" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>274</v>
+      </c>
+      <c r="D64" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>279</v>
+      </c>
+      <c r="D66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>282</v>
+      </c>
+      <c r="D67" t="s">
+        <v>283</v>
+      </c>
+      <c r="E67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" t="s">
+        <v>283</v>
+      </c>
+      <c r="E68" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>287</v>
+      </c>
+      <c r="D69" t="s">
+        <v>288</v>
+      </c>
+      <c r="E69" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>290</v>
+      </c>
+      <c r="B70">
+        <v>25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" t="s">
+        <v>288</v>
+      </c>
+      <c r="E70" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>294</v>
+      </c>
+      <c r="D71" t="s">
+        <v>295</v>
+      </c>
+      <c r="E71" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>297</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
